--- a/genshin/455909069075671446_2020-11-10_14-00-02.xlsx
+++ b/genshin/455909069075671446_2020-11-10_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:57:39</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.08170138889</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-18 15:36:14</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44153.65016203704</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -687,10 +699,8 @@
           <t>3704596531</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-14 02:35:37</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44149.10806712963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -766,10 +776,8 @@
           <t>3702261272</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-13 13:55:26</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44148.58016203704</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -829,10 +837,8 @@
           <t>3702260291</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-13 13:54:06</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44148.57923611111</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -892,10 +898,8 @@
           <t>3692629087</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-13 13:49:18</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44148.57590277777</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -955,10 +959,8 @@
           <t>3692756976</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-13 13:47:56</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44148.5749537037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1018,10 +1020,8 @@
           <t>3692533087</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-11 23:19:28</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44146.97185185185</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1089,10 +1089,8 @@
           <t>3692533087</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-11 23:12:37</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44146.96709490741</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1156,10 +1154,8 @@
           <t>3692533087</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-11 22:52:24</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44146.95305555555</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1227,10 +1223,8 @@
           <t>3692533087</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-11 20:51:02</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44146.86877314815</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1294,10 +1288,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-11 19:14:36</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44146.80180555556</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1361,10 +1353,8 @@
           <t>3692533087</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:48:22</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44146.78358796296</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1432,10 +1422,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:50:39</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44146.74350694445</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1499,10 +1487,8 @@
           <t>3692745240</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:29:54</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44146.72909722223</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1578,10 +1564,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:27:12</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44146.72722222222</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1645,10 +1629,8 @@
           <t>3695826409</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:35:07</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44146.60771990741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1716,10 +1698,8 @@
           <t>3695355242</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:48:49</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44146.4922337963</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1787,10 +1767,8 @@
           <t>3692745240</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:37:17</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44146.48422453704</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1858,10 +1836,8 @@
           <t>3695112383</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:06:28</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44146.42115740741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1937,10 +1913,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-11 09:36:54</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44146.400625</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2004,10 +1978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-11 09:32:18</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44146.39743055555</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2075,10 +2047,8 @@
           <t>3695035609</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-11 09:27:02</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44146.39377314815</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2146,10 +2116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-11 09:26:51</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44146.39364583333</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2217,10 +2185,8 @@
           <t>3694919258</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-11 08:43:56</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44146.36384259259</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2293,10 +2259,8 @@
           <t>3692626845</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-11 08:38:53</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44146.36033564815</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2369,10 +2333,8 @@
           <t>3694919258</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-11 08:22:27</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44146.34892361111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2440,10 +2402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-11 07:47:55</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44146.32494212963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2511,10 +2471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-11 07:13:53</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44146.30130787037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2590,10 +2548,8 @@
           <t>3694753134</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-11 04:43:46</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44146.19706018519</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2661,10 +2617,8 @@
           <t>3692719408</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-11 04:41:51</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44146.19572916667</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2732,10 +2686,8 @@
           <t>3692586994</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-11 04:37:43</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44146.1928587963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2803,10 +2755,8 @@
           <t>3694755663</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-11 04:36:25</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44146.19195601852</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2874,10 +2824,8 @@
           <t>3693030777</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-11 04:35:28</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44146.1912962963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2945,10 +2893,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-11 01:09:54</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44146.04854166666</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3020,10 +2966,8 @@
           <t>3692533087</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-11 00:25:34</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44146.01775462963</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3087,10 +3031,8 @@
           <t>3694324323</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:44:08</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44145.98898148148</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3162,10 +3104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:27:15</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44145.97725694445</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3241,10 +3181,8 @@
           <t>3694249538</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:24:46</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44145.97553240741</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3320,10 +3258,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:22:01</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44145.97362268518</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3387,10 +3323,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:16:32</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44145.96981481482</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3454,10 +3388,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:16:22</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44145.96969907408</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -3521,10 +3453,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:15:45</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44145.96927083333</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3584,10 +3514,8 @@
           <t>3693980955</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:14:56</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44145.9687037037</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3663,10 +3591,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:13:14</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44145.96752314815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3730,10 +3656,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-10 23:08:50</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44145.9644675926</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3797,10 +3721,8 @@
           <t>3692536672</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:49:26</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44145.95099537037</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3869,10 +3791,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:40:08</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44145.94453703704</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3943,10 +3863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:33:28</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44145.93990740741</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4015,10 +3933,8 @@
           <t>3694019093</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:28:30</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44145.93645833333</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4094,10 +4010,8 @@
           <t>3693980955</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:16:16</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44145.92796296296</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4161,10 +4075,8 @@
           <t>3693698736</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:15:16</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44145.92726851852</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4236,10 +4148,8 @@
           <t>3692533087</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:11:58</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44145.92497685185</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4311,10 +4221,8 @@
           <t>3693698736</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:11:47</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44145.92484953703</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4390,10 +4298,8 @@
           <t>3693698736</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:08:44</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44145.92273148148</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4465,10 +4371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:06:26</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44145.92113425926</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4544,10 +4448,8 @@
           <t>3693936992</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:06:05</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44145.92089120371</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4615,10 +4517,8 @@
           <t>3693698736</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:04:08</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44145.91953703704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4682,10 +4582,8 @@
           <t>3693698736</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:03:34</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44145.91914351852</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4749,10 +4647,8 @@
           <t>3692537414</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-10 22:01:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44145.91738425926</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4816,10 +4712,8 @@
           <t>3693779757</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-10 21:26:54</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44145.89368055556</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4891,10 +4785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-10 21:25:17</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44145.89255787037</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -4954,10 +4846,8 @@
           <t>3693698736</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-10 21:05:55</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44145.8791087963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5029,10 +4919,8 @@
           <t>3693705744</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-10 21:04:35</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44145.87818287037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5100,10 +4988,8 @@
           <t>3693691861</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-10 21:01:25</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44145.87598379629</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5175,10 +5061,8 @@
           <t>3693256646</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-10 20:58:30</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44145.87395833333</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5250,10 +5134,8 @@
           <t>3693672619</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-10 20:57:19</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44145.87313657408</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5325,10 +5207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-10 20:48:45</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44145.8671875</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5392,10 +5272,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-10 20:42:43</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44145.86299768519</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5455,10 +5333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-10 20:30:23</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44145.85443287037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5526,10 +5402,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-10 20:08:58</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44145.83956018519</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5593,10 +5467,8 @@
           <t>3693497953</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-10 20:08:10</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44145.83900462963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5660,10 +5532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:40:42</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44145.81993055555</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5739,10 +5609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:36:31</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44145.81702546297</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5810,10 +5678,8 @@
           <t>3692608901</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:34:34</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44145.8156712963</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5877,10 +5743,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:23:00</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44145.80763888889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5953,10 +5817,8 @@
           <t>3693244867</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:18:37</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44145.80459490741</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6033,10 +5895,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:17:29</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44145.80380787037</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6112,10 +5972,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:15:49</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44145.80265046296</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6186,10 +6044,8 @@
           <t>3693316764</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:15:37</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44145.80251157407</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6257,10 +6113,8 @@
           <t>3693310895</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:14:31</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44145.80174768518</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6324,10 +6178,8 @@
           <t>3693296309</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:10:37</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44145.79903935185</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6391,10 +6243,8 @@
           <t>3692533087</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:04:57</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44145.79510416667</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6458,10 +6308,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-10 19:03:07</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44145.79383101852</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6533,10 +6381,8 @@
           <t>3693256646</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:59:41</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44145.79144675926</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6610,10 +6456,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:59:04</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44145.79101851852</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6689,10 +6533,8 @@
           <t>3693249085</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:58:58</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44145.79094907407</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6760,10 +6602,8 @@
           <t>3693244867</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:58:19</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44145.79049768519</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6830,10 +6670,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:55:42</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44145.78868055555</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6909,10 +6747,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:53:25</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44145.78709490741</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6984,10 +6820,8 @@
           <t>3693030777</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:53:21</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44145.78704861111</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7047,10 +6881,8 @@
           <t>3693223975</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:52:29</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44145.78644675926</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7118,10 +6950,8 @@
           <t>3693021461</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:50:03</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44145.78475694444</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7183,10 +7013,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:49:18</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44145.78423611111</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7262,10 +7090,8 @@
           <t>3693030777</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:47:52</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44145.78324074074</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7325,10 +7151,8 @@
           <t>3693211255</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:47:15</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44145.7828125</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7392,10 +7216,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:38:33</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44145.77677083333</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -7459,10 +7281,8 @@
           <t>3693173238</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:37:34</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44145.77608796296</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7530,10 +7350,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:34:48</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44145.77416666667</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7601,10 +7419,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:34:38</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44145.77405092592</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7672,10 +7488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:33:10</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44145.77303240741</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -7735,10 +7549,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:27:00</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44145.76875</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7810,10 +7622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:26:50</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44145.76863425926</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7885,10 +7695,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:26:09</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44145.76815972223</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -7960,10 +7768,8 @@
           <t>3693128601</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:25:33</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44145.76774305556</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8039,10 +7845,8 @@
           <t>3693124274</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:25:20</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44145.76759259259</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8118,10 +7922,8 @@
           <t>3693123800</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:24:58</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44145.76733796296</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8197,10 +7999,8 @@
           <t>3693127740</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:24:48</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44145.76722222222</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8276,10 +8076,8 @@
           <t>3692748370</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:23:53</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44145.76658564815</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8355,10 +8153,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:18:30</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44145.76284722222</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8418,10 +8214,8 @@
           <t>3693084488</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:13:35</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44145.75943287037</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8489,10 +8283,8 @@
           <t>3692517478</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:10:52</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44145.7575462963</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8564,10 +8356,8 @@
           <t>3693059495</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-10 18:07:17</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44145.75505787037</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8631,10 +8421,8 @@
           <t>3693030777</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:57:48</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44145.74847222222</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8698,10 +8486,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:57:15</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44145.74809027778</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8772,10 +8558,8 @@
           <t>3693017062</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:54:37</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44145.74626157407</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8850,10 +8634,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:54:10</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44145.74594907407</v>
       </c>
       <c r="I118" t="n">
         <v>4</v>
@@ -8924,10 +8706,8 @@
           <t>3693021461</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:54:06</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44145.74590277778</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -8991,10 +8771,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:52:06</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44145.74451388889</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9070,10 +8848,8 @@
           <t>3693008397</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:51:20</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44145.74398148148</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9137,10 +8913,8 @@
           <t>3693010313</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:50:40</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44145.74351851852</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9216,10 +8990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:50:13</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44145.74320601852</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9291,10 +9063,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:50:02</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44145.7430787037</v>
       </c>
       <c r="I124" t="n">
         <v>4</v>
@@ -9362,10 +9132,8 @@
           <t>3692983934</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:44:33</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44145.73927083334</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9429,10 +9197,8 @@
           <t>3692974880</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:43:11</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44145.73832175926</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9496,10 +9262,8 @@
           <t>3692981242</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:41:58</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44145.73747685185</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9575,10 +9339,8 @@
           <t>3692959597</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:38:07</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44145.73480324074</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9642,10 +9404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:37:00</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44145.73402777778</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9713,10 +9473,8 @@
           <t>3692602678</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:36:04</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44145.73337962963</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9800,10 +9558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:35:04</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44145.73268518518</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9871,10 +9627,8 @@
           <t>3692569930</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:33:27</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44145.7315625</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9948,10 +9702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:31:35</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44145.7302662037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10019,10 +9771,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:27:41</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44145.72755787037</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10094,10 +9844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:25:52</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44145.7262962963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10165,10 +9913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:21:43</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44145.72341435185</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10236,10 +9982,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:15:28</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44145.71907407408</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10311,10 +10055,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:14:06</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44145.718125</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10386,10 +10128,8 @@
           <t>3692864008</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:03:26</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44145.71071759259</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10457,10 +10197,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:02:52</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44145.71032407408</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10532,10 +10270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:02:25</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44145.71001157408</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10599,10 +10335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-10 17:00:35</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44145.70873842593</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10670,10 +10404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:53:12</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44145.70361111111</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10741,10 +10473,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:52:16</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44145.70296296296</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10816,10 +10546,8 @@
           <t>3692833601</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:51:29</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44145.70241898148</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10887,10 +10615,8 @@
           <t>3692825553</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:46:09</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44145.69871527778</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10959,10 +10685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:45:46</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44145.69844907407</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11030,10 +10754,8 @@
           <t>3692748370</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:45:23</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44145.69818287037</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11101,10 +10823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:45:13</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44145.69806712963</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11168,10 +10888,8 @@
           <t>3692625495</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:44:35</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44145.69762731482</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11248,10 +10966,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:43:54</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44145.69715277778</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11319,10 +11035,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:43:04</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44145.69657407407</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11390,10 +11104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:41:40</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44145.69560185185</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11469,10 +11181,8 @@
           <t>3692794414</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:37:26</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44145.69266203704</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11540,10 +11250,8 @@
           <t>3692745240</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:35:45</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44145.69149305556</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11611,10 +11319,8 @@
           <t>3692790376</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:32:08</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44145.68898148148</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11678,10 +11384,8 @@
           <t>3692787603</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:31:25</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44145.68848379629</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11745,10 +11449,8 @@
           <t>3692783024</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:30:54</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44145.688125</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11822,10 +11524,8 @@
           <t>3692719408</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:29:50</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44145.68738425926</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11889,10 +11589,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:29:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44145.68682870371</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11964,10 +11662,8 @@
           <t>3692781237</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:28:35</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44145.68651620371</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12035,10 +11731,8 @@
           <t>3692777629</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:28:31</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44145.68646990741</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12102,10 +11796,8 @@
           <t>3692777151</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:27:53</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44145.68603009259</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12177,10 +11869,8 @@
           <t>3692774387</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:27:03</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44145.68545138889</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12251,10 +11941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:23:53</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44145.68325231481</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12330,10 +12018,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:21:31</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44145.68160879629</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12409,10 +12095,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:20:06</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44145.680625</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12480,10 +12164,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:19:48</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44145.68041666667</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -12559,10 +12241,8 @@
           <t>3692748370</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:18:51</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44145.67975694445</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12635,10 +12315,8 @@
           <t>3692576149</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:17:56</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44145.67912037037</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -12706,10 +12384,8 @@
           <t>3692756976</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:17:14</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44145.67863425926</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12785,10 +12461,8 @@
           <t>3692745240</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:17:08</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44145.67856481481</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12864,10 +12538,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:16:57</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44145.6784375</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12939,10 +12611,8 @@
           <t>3692745240</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:16:50</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44145.67835648148</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13018,10 +12688,8 @@
           <t>3692708966</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:16:26</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44145.67807870371</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13089,10 +12757,8 @@
           <t>3692748370</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:16:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44145.67805555555</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13168,10 +12834,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:15:46</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44145.67761574074</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13243,10 +12907,8 @@
           <t>3692744748</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:14:10</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44145.67650462963</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13314,10 +12976,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:14:09</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44145.67649305556</v>
       </c>
       <c r="I179" t="n">
         <v>4</v>
@@ -13377,10 +13037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:13:01</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44145.67570601852</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13456,10 +13114,8 @@
           <t>3692607066</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:12:17</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44145.67519675926</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13528,10 +13184,8 @@
           <t>3692745240</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:12:03</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44145.67503472222</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13599,10 +13253,8 @@
           <t>3692561132</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:11:43</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44145.67480324074</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13670,10 +13322,8 @@
           <t>3692719408</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:11:33</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44145.6746875</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13749,10 +13399,8 @@
           <t>3692742551</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:11:16</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44145.67449074074</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13820,10 +13468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:11:08</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44145.67439814815</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13892,10 +13538,8 @@
           <t>3692737956</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:11:05</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44145.67436342593</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13971,10 +13615,8 @@
           <t>3692742035</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:10:33</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44145.67399305556</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14042,10 +13684,8 @@
           <t>3692607066</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:10:08</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44145.6737037037</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14114,10 +13754,8 @@
           <t>3692680767</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:10:01</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44145.67362268519</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14193,10 +13831,8 @@
           <t>3692737108</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:09:56</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44145.67356481482</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14272,10 +13908,8 @@
           <t>3692719408</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:09:18</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44145.673125</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14351,10 +13985,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:06:14</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44145.67099537037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14426,10 +14058,8 @@
           <t>3692625078</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:05:56</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44145.67078703704</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14497,10 +14127,8 @@
           <t>3692607066</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:05:51</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44145.67072916667</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14568,10 +14196,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:05:07</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44145.67021990741</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14647,10 +14273,8 @@
           <t>3692723314</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:04:59</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44145.67012731481</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14722,10 +14346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:04:41</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44145.66991898148</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14804,10 +14426,8 @@
           <t>3692719408</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:03:54</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44145.669375</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -14871,10 +14491,8 @@
           <t>3692622069</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:03:08</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44145.66884259259</v>
       </c>
       <c r="I200" t="n">
         <v>4</v>
@@ -14938,10 +14556,8 @@
           <t>3692547805</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:02:35</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44145.66846064815</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15013,10 +14629,8 @@
           <t>3692721264</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:02:21</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44145.66829861111</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15084,10 +14698,8 @@
           <t>3692721230</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:02:18</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44145.66826388889</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15159,10 +14771,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:02:16</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44145.66824074074</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15234,10 +14844,8 @@
           <t>3692680767</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:01:42</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44145.66784722222</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15313,10 +14921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-10 16:00:33</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44145.66704861111</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15384,10 +14990,8 @@
           <t>3692708966</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:59:46</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44145.66650462963</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15447,10 +15051,8 @@
           <t>3692715817</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:59:08</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44145.66606481482</v>
       </c>
       <c r="I208" t="n">
         <v>2</v>
@@ -15518,10 +15120,8 @@
           <t>3692713225</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:58:33</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44145.66565972222</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15589,10 +15189,8 @@
           <t>3692686577</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:58:17</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44145.66547453704</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15668,10 +15266,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:57:41</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44145.66505787037</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15735,10 +15331,8 @@
           <t>3692712278</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:57:19</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44145.66480324074</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15806,10 +15400,8 @@
           <t>3692686577</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:56:49</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44145.66445601852</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15885,10 +15477,8 @@
           <t>3692699949</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:54:15</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44145.66267361111</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -15960,10 +15550,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:52:10</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44145.66122685185</v>
       </c>
       <c r="I215" t="n">
         <v>12</v>
@@ -16039,10 +15627,8 @@
           <t>3692687726</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:48:11</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44145.65846064815</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16110,10 +15696,8 @@
           <t>3692666966</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:48:09</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44145.6584375</v>
       </c>
       <c r="I217" t="n">
         <v>7</v>
@@ -16189,10 +15773,8 @@
           <t>3692686577</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:46:38</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44145.65738425926</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16268,10 +15850,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:46:27</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44145.65725694445</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16343,10 +15923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:45:28</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44145.65657407408</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16422,10 +16000,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:45:16</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44145.65643518518</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16489,10 +16065,8 @@
           <t>3692642158</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:45:00</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44145.65625</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16568,10 +16142,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:44:48</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44145.65611111111</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16643,10 +16215,8 @@
           <t>3692642158</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:44:28</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44145.65587962963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16722,10 +16292,8 @@
           <t>3692677817</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:44:18</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44145.65576388889</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16793,10 +16361,8 @@
           <t>3692625495</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:43:48</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44145.65541666667</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16872,10 +16438,8 @@
           <t>3692625078</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:42:35</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44145.65457175926</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16951,10 +16515,8 @@
           <t>3692680767</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:42:29</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44145.65450231481</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17018,10 +16580,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:41:13</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44145.65362268518</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17085,10 +16645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:41:05</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44145.65353009259</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17156,10 +16714,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:39:33</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44145.65246527778</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17231,10 +16787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:37:53</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44145.65130787037</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17302,10 +16856,8 @@
           <t>3692666966</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:37:19</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44145.65091435185</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17369,10 +16921,8 @@
           <t>3692662741</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:37:03</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44145.65072916666</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17440,10 +16990,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:36:26</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44145.65030092592</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17507,10 +17055,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:35:57</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44145.64996527778</v>
       </c>
       <c r="I236" t="n">
         <v>26</v>
@@ -17586,10 +17132,8 @@
           <t>3692521570</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:35:49</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44145.64987268519</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17657,10 +17201,8 @@
           <t>3692642158</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:35:49</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44145.64987268519</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17724,10 +17266,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:35:38</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44145.64974537037</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17791,10 +17331,8 @@
           <t>3692615230</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:34:23</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44145.64887731482</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17870,10 +17408,8 @@
           <t>3692625495</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:34:20</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44145.64884259259</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -17950,10 +17486,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:32:43</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44145.64771990741</v>
       </c>
       <c r="I242" t="n">
         <v>9</v>
@@ -18017,10 +17551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:32:11</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44145.64734953704</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18088,10 +17620,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:31:26</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44145.64682870371</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18163,10 +17693,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:31:18</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44145.64673611111</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18230,10 +17758,8 @@
           <t>3692552986</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:30:21</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44145.64607638889</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18297,10 +17823,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:30:17</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44145.64603009259</v>
       </c>
       <c r="I247" t="n">
         <v>10</v>
@@ -18364,10 +17888,8 @@
           <t>3692594326</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:29:46</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44145.6456712963</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18443,10 +17965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:29:18</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44145.64534722222</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18518,10 +18038,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:29:11</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44145.6452662037</v>
       </c>
       <c r="I250" t="n">
         <v>10</v>
@@ -18599,10 +18117,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:28:36</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44145.64486111111</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18678,10 +18194,8 @@
           <t>3692615230</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:27:38</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44145.64418981481</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18753,10 +18267,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:27:08</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44145.6438425926</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18828,10 +18340,8 @@
           <t>3692642158</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:26:54</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44145.64368055556</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18908,10 +18418,8 @@
           <t>3692594326</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:26:54</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44145.64368055556</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18984,10 +18492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:26:43</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44145.64355324074</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19052,10 +18558,8 @@
           <t>3692597921</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:26:27</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44145.64336805556</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19131,10 +18635,8 @@
           <t>3692615230</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:26:25</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44145.64334490741</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19210,10 +18712,8 @@
           <t>3692641760</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:26:22</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44145.64331018519</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19289,10 +18789,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:25:34</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44145.64275462963</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -19370,10 +18868,8 @@
           <t>3692638244</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:25:25</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44145.64265046296</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19441,10 +18937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:25:05</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44145.64241898148</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19512,10 +19006,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:25:05</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44145.64241898148</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19593,10 +19085,8 @@
           <t>3692637651</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:24:34</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44145.64206018519</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19668,10 +19158,8 @@
           <t>3692635791</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:23:52</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44145.64157407408</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19747,10 +19235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:23:49</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44145.64153935185</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19826,10 +19312,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:23:43</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44145.64146990741</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19893,10 +19377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:23:33</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44145.64135416667</v>
       </c>
       <c r="I268" t="n">
         <v>5</v>
@@ -19960,10 +19442,8 @@
           <t>3692594326</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:23:29</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44145.64130787037</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20039,10 +19519,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:23:06</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44145.64104166667</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20114,10 +19592,8 @@
           <t>3692632387</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:23:04</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44145.64101851852</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20194,10 +19670,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:22:45</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44145.64079861111</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20275,10 +19749,8 @@
           <t>3692629087</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:22:40</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44145.64074074074</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20342,10 +19814,8 @@
           <t>3692622069</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:22:08</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44145.64037037037</v>
       </c>
       <c r="I274" t="n">
         <v>5</v>
@@ -20405,10 +19875,8 @@
           <t>3692622069</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:21:35</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44145.63998842592</v>
       </c>
       <c r="I275" t="n">
         <v>4</v>
@@ -20472,10 +19940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:20:54</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44145.63951388889</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20551,10 +20017,8 @@
           <t>3692622069</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:20:53</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44145.63950231481</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20630,10 +20094,8 @@
           <t>3692630641</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:20:36</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44145.63930555555</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20701,10 +20163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:20:15</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44145.6390625</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -20768,10 +20228,8 @@
           <t>3692626845</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:19:35</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44145.63859953704</v>
       </c>
       <c r="I280" t="n">
         <v>7</v>
@@ -20848,10 +20306,8 @@
           <t>3692625078</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:19:08</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44145.63828703704</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20923,10 +20379,8 @@
           <t>3692569930</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:19:05</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44145.63825231481</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20990,10 +20444,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:18:50</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44145.63807870371</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21065,10 +20517,8 @@
           <t>3692625922</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:18:22</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44145.63775462963</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21136,10 +20586,8 @@
           <t>3692594326</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:17:50</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44145.63738425926</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21211,10 +20659,8 @@
           <t>3692625495</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:17:47</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44145.63734953704</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21278,10 +20724,8 @@
           <t>3692625078</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:17:13</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44145.63695601852</v>
       </c>
       <c r="I287" t="n">
         <v>8</v>
@@ -21357,10 +20801,8 @@
           <t>3692576149</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:17:03</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44145.63684027778</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21428,10 +20870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:16:57</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44145.63677083333</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21499,10 +20939,8 @@
           <t>3692622069</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:16:54</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44145.63673611111</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21566,10 +21004,8 @@
           <t>3692617448</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:16:28</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44145.63643518519</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21632,10 +21068,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:16:19</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44145.63633101852</v>
       </c>
       <c r="I292" t="n">
         <v>17</v>
@@ -21706,10 +21140,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:16:02</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44145.63613425926</v>
       </c>
       <c r="I293" t="n">
         <v>4</v>
@@ -21786,10 +21218,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:15:55</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44145.63605324074</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21865,10 +21295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:15:53</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44145.6360300926</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21936,10 +21364,8 @@
           <t>3692613802</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:15:29</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44145.63575231482</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22015,10 +21441,8 @@
           <t>3692613769</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:15:26</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44145.6357175926</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22094,10 +21518,8 @@
           <t>3692594326</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:15:07</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44145.63549768519</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22173,10 +21595,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:14:27</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44145.63503472223</v>
       </c>
       <c r="I299" t="n">
         <v>5</v>
@@ -22248,10 +21668,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:14:15</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44145.63489583333</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22319,10 +21737,8 @@
           <t>3692620174</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:14:14</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44145.63488425926</v>
       </c>
       <c r="I301" t="n">
         <v>10</v>
@@ -22398,10 +21814,8 @@
           <t>3692612709</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:13:51</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44145.63461805556</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22465,10 +21879,8 @@
           <t>3692576149</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:13:41</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44145.63450231482</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22544,10 +21956,8 @@
           <t>3692612569</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:13:38</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44145.63446759259</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22607,10 +22017,8 @@
           <t>3692566827</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:13:33</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44145.63440972222</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22678,10 +22086,8 @@
           <t>3692615230</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:13:28</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44145.63435185186</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22753,10 +22159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:13:17</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44145.63422453704</v>
       </c>
       <c r="I307" t="n">
         <v>10</v>
@@ -22824,10 +22228,8 @@
           <t>3692608901</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:12:34</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44145.63372685185</v>
       </c>
       <c r="I308" t="n">
         <v>18</v>
@@ -22895,10 +22297,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:12:22</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44145.63358796296</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22966,10 +22366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:12:07</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44145.63341435185</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23041,10 +22439,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:11:36</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44145.63305555555</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23116,10 +22512,8 @@
           <t>3692566827</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:11:02</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44145.63266203704</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23187,10 +22581,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:10:46</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44145.63247685185</v>
       </c>
       <c r="I313" t="n">
         <v>6</v>
@@ -23266,10 +22658,8 @@
           <t>3692599413</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:10:20</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44145.63217592592</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23345,10 +22735,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:10:19</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44145.63216435185</v>
       </c>
       <c r="I315" t="n">
         <v>3</v>
@@ -23420,10 +22808,8 @@
           <t>3692607066</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:10:10</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44145.63206018518</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23491,10 +22877,8 @@
           <t>3692566827</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:10:05</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44145.63200231481</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23562,10 +22946,8 @@
           <t>3692602678</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:09:59</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44145.63193287037</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23629,10 +23011,8 @@
           <t>3692576149</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:09:11</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44145.63137731481</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23700,10 +23080,8 @@
           <t>3692599227</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:09:04</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44145.6312962963</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23771,10 +23149,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:08:56</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44145.63120370371</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23850,10 +23226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:07:52</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44145.63046296296</v>
       </c>
       <c r="I322" t="n">
         <v>16</v>
@@ -23925,10 +23299,8 @@
           <t>3692576149</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:07:41</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44145.63033564815</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24000,10 +23372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:07:28</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44145.63018518518</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -24071,10 +23441,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:07:20</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44145.63009259259</v>
       </c>
       <c r="I325" t="n">
         <v>11</v>
@@ -24142,10 +23510,8 @@
           <t>3692597921</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:07:19</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44145.63008101852</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24221,10 +23587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:07:05</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44145.62991898148</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24300,10 +23664,8 @@
           <t>3692541075</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:06:57</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44145.62982638889</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24371,10 +23733,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:06:50</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44145.62974537037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24446,10 +23806,8 @@
           <t>3692594326</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:06:32</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44145.62953703704</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24521,10 +23879,8 @@
           <t>3692537414</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:05:55</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44145.6291087963</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24592,10 +23948,8 @@
           <t>3692517478</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:05:53</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44145.62908564815</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24663,10 +24017,8 @@
           <t>3692536672</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:05:42</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44145.62895833333</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24738,10 +24090,8 @@
           <t>3692515179</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:05:16</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44145.6286574074</v>
       </c>
       <c r="I334" t="n">
         <v>4</v>
@@ -24805,10 +24155,8 @@
           <t>3692589083</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:05:06</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44145.62854166667</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24876,10 +24224,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:04:58</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44145.62844907407</v>
       </c>
       <c r="I336" t="n">
         <v>3</v>
@@ -24947,10 +24293,8 @@
           <t>3692595877</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:04:29</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44145.62811342593</v>
       </c>
       <c r="I337" t="n">
         <v>4</v>
@@ -25026,10 +24370,8 @@
           <t>3692552986</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:04:25</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44145.62806712963</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25097,10 +24439,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:04:22</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44145.62803240741</v>
       </c>
       <c r="I339" t="n">
         <v>9</v>
@@ -25164,10 +24504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:03:54</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44145.62770833333</v>
       </c>
       <c r="I340" t="n">
         <v>3</v>
@@ -25231,10 +24569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:03:50</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44145.62766203703</v>
       </c>
       <c r="I341" t="n">
         <v>24</v>
@@ -25294,10 +24630,8 @@
           <t>3692521570</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:03:42</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44145.62756944444</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25365,10 +24699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:03:18</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44145.62729166666</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25446,10 +24778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:03:05</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44145.6271412037</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -25517,10 +24847,8 @@
           <t>3692587464</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:02:50</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44145.62696759259</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25584,10 +24912,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:02:29</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44145.62672453704</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25659,10 +24985,8 @@
           <t>3692537414</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:02:14</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44145.62655092592</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25733,10 +25057,8 @@
           <t>3692586994</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:02:10</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44145.62650462963</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25808,10 +25130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:02:03</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44145.62642361111</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25879,10 +25199,8 @@
           <t>3692586660</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:01:44</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44145.6262037037</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -25950,10 +25268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:01:39</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44145.62614583333</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26021,10 +25337,8 @@
           <t>3692517478</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:01:09</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44145.62579861111</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26096,10 +25410,8 @@
           <t>3692517478</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:01:00</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44145.62569444445</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26170,10 +25482,8 @@
           <t>3692586161</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:00:58</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44145.62567129629</v>
       </c>
       <c r="I354" t="n">
         <v>7</v>
@@ -26250,10 +25560,8 @@
           <t>3692537414</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:00:44</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44145.62550925926</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26321,10 +25629,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:00:41</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44145.62547453704</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26396,10 +25702,8 @@
           <t>3692552986</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:00:36</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44145.62541666667</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26467,10 +25771,8 @@
           <t>3692576149</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:00:34</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44145.62539351852</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26546,10 +25848,8 @@
           <t>3692582862</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:00:34</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44145.62539351852</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26613,10 +25913,8 @@
           <t>3692569253</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:00:27</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44145.6253125</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -26684,10 +25982,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:00:19</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44145.62521990741</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26759,10 +26055,8 @@
           <t>3692582442</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-10 15:00:01</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44145.62501157408</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26830,10 +26124,8 @@
           <t>3692582377</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:59:56</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44145.6249537037</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26901,10 +26193,8 @@
           <t>3692553675</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:59:01</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44145.62431712963</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26980,10 +26270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:58:36</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44145.62402777778</v>
       </c>
       <c r="I365" t="n">
         <v>7</v>
@@ -27047,10 +26335,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:57:30</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44145.62326388889</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -27114,10 +26400,8 @@
           <t>3692580622</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:57:29</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44145.62325231481</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27189,10 +26473,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:57:19</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44145.62313657408</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27264,10 +26546,8 @@
           <t>3692552986</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:56:47</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44145.62276620371</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27333,10 +26613,8 @@
           <t>3692580115</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:56:45</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44145.62274305556</v>
       </c>
       <c r="I370" t="n">
         <v>46</v>
@@ -27407,10 +26685,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:56:36</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44145.62263888889</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27478,10 +26754,8 @@
           <t>3692569930</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:56:28</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44145.6225462963</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -27549,10 +26823,8 @@
           <t>3692573029</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:56:26</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44145.62252314815</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27620,10 +26892,8 @@
           <t>3692576768</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:56:24</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44145.6225</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27691,10 +26961,8 @@
           <t>3692552986</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:55:56</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44145.62217592593</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27758,10 +27026,8 @@
           <t>3692572672</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:55:52</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44145.62212962963</v>
       </c>
       <c r="I376" t="n">
         <v>4</v>
@@ -27837,10 +27103,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:55:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44145.62203703704</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27908,10 +27172,8 @@
           <t>3692576149</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:55:33</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44145.62190972222</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27979,10 +27241,8 @@
           <t>3692569253</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:55:30</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44145.621875</v>
       </c>
       <c r="I379" t="n">
         <v>6</v>
@@ -28050,10 +27310,8 @@
           <t>3692541075</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:55:21</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44145.62177083334</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28123,10 +27381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:55:15</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44145.62170138889</v>
       </c>
       <c r="I381" t="n">
         <v>3</v>
@@ -28197,10 +27453,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:55:09</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44145.62163194444</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28276,10 +27530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:54:11</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44145.62096064815</v>
       </c>
       <c r="I383" t="n">
         <v>23</v>
@@ -28356,10 +27608,8 @@
           <t>3692570566</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:54:00</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44145.62083333333</v>
       </c>
       <c r="I384" t="n">
         <v>7</v>
@@ -28435,10 +27685,8 @@
           <t>3692534304</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:54:00</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44145.62083333333</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28506,10 +27754,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:53:54</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44145.62076388889</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28577,10 +27823,8 @@
           <t>3692571013</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:53:23</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44145.6204050926</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28644,10 +27888,8 @@
           <t>3692502690</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:53:23</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44145.6204050926</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28711,10 +27953,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:52:48</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44145.62</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28786,10 +28026,8 @@
           <t>3692570566</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:52:41</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44145.61991898148</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28861,10 +28099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:52:36</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44145.61986111111</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28940,10 +28176,8 @@
           <t>3692563923</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:52:34</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44145.61983796296</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -29011,10 +28245,8 @@
           <t>3692541075</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:52:14</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44145.61960648148</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29082,10 +28314,8 @@
           <t>3692566827</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:52:08</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44145.61953703704</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29153,10 +28383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:52:07</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44145.61952546296</v>
       </c>
       <c r="I395" t="n">
         <v>2</v>
@@ -29224,10 +28452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:52:03</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44145.61947916666</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29301,10 +28527,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:52:00</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44145.61944444444</v>
       </c>
       <c r="I397" t="n">
         <v>26</v>
@@ -29372,10 +28596,8 @@
           <t>3692566635</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:51:53</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44145.61936342593</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29447,10 +28669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:51:47</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44145.61929398148</v>
       </c>
       <c r="I399" t="n">
         <v>7</v>
@@ -29522,10 +28742,8 @@
           <t>3692563282</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:51:42</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44145.61923611111</v>
       </c>
       <c r="I400" t="n">
         <v>2</v>
@@ -29589,10 +28807,8 @@
           <t>3692563123</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:51:29</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44145.61908564815</v>
       </c>
       <c r="I401" t="n">
         <v>26</v>
@@ -29668,10 +28884,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:51:20</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44145.61898148148</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29739,10 +28953,8 @@
           <t>3692554614</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:51:19</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44145.61896990741</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29810,10 +29022,8 @@
           <t>3692536672</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:51:08</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44145.61884259259</v>
       </c>
       <c r="I404" t="n">
         <v>2</v>
@@ -29889,10 +29099,8 @@
           <t>3692548698</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:50:48</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44145.61861111111</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29968,10 +29176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:50:23</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44145.61832175926</v>
       </c>
       <c r="I406" t="n">
         <v>13</v>
@@ -30039,10 +29245,8 @@
           <t>3692562179</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:50:08</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44145.61814814815</v>
       </c>
       <c r="I407" t="n">
         <v>9</v>
@@ -30114,10 +29318,8 @@
           <t>3692502690</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:50:06</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44145.618125</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30185,10 +29387,8 @@
           <t>3692562081</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:49:59</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44145.61804398148</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30257,10 +29457,8 @@
           <t>3692548698</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:49:12</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44145.6175</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30336,10 +29534,8 @@
           <t>3692558307</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:49:08</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44145.6174537037</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30411,10 +29607,8 @@
           <t>3692554614</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:49:00</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44145.61736111111</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30482,10 +29676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:48:46</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44145.61719907408</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30549,10 +29741,8 @@
           <t>3692561132</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:48:39</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44145.61711805555</v>
       </c>
       <c r="I414" t="n">
         <v>6</v>
@@ -30620,10 +29810,8 @@
           <t>3692561107</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:48:38</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44145.61710648148</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30691,10 +29879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:48:32</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44145.61703703704</v>
       </c>
       <c r="I416" t="n">
         <v>25</v>
@@ -30770,10 +29956,8 @@
           <t>3692534304</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:48:07</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44145.61674768518</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30852,10 +30036,8 @@
           <t>3692517478</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:47:44</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44145.61648148148</v>
       </c>
       <c r="I418" t="n">
         <v>11</v>
@@ -30931,10 +30113,8 @@
           <t>3692553675</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:47:34</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44145.61636574074</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31010,10 +30190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:47:27</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44145.61628472222</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31085,10 +30263,8 @@
           <t>3692544192</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:47:22</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44145.61622685185</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31156,10 +30332,8 @@
           <t>3692553475</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:47:16</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44145.61615740741</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31223,10 +30397,8 @@
           <t>3692560094</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:47:12</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44145.61611111111</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31298,10 +30470,8 @@
           <t>3692536672</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:46:46</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44145.61581018518</v>
       </c>
       <c r="I424" t="n">
         <v>5</v>
@@ -31373,10 +30543,8 @@
           <t>3692544192</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:46:44</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44145.61578703704</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31440,10 +30608,8 @@
           <t>3692552986</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:46:33</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44145.61565972222</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31511,10 +30677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:45:49</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44145.61515046296</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31586,10 +30750,8 @@
           <t>3692548741</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:45:15</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44145.61475694444</v>
       </c>
       <c r="I428" t="n">
         <v>7</v>
@@ -31653,10 +30815,8 @@
           <t>3692548698</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:45:11</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44145.61471064815</v>
       </c>
       <c r="I429" t="n">
         <v>3</v>
@@ -31732,10 +30892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:45:08</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44145.61467592593</v>
       </c>
       <c r="I430" t="n">
         <v>3</v>
@@ -31811,10 +30969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:45:06</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44145.61465277777</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31874,10 +31030,8 @@
           <t>3692502690</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:44:59</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44145.61457175926</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31953,10 +31107,8 @@
           <t>3692544192</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:44:59</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44145.61457175926</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32020,10 +31172,8 @@
           <t>3692551620</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:44:28</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44145.61421296297</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32092,10 +31242,8 @@
           <t>3692551455</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:44:13</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44145.61403935185</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32167,10 +31315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:44:00</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44145.61388888889</v>
       </c>
       <c r="I436" t="n">
         <v>11</v>
@@ -32238,10 +31384,8 @@
           <t>3692547805</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:43:51</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44145.61378472222</v>
       </c>
       <c r="I437" t="n">
         <v>17</v>
@@ -32313,10 +31457,8 @@
           <t>3692544426</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:43:00</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44145.61319444444</v>
       </c>
       <c r="I438" t="n">
         <v>4</v>
@@ -32380,10 +31522,8 @@
           <t>3692544192</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:42:38</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44145.61293981481</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32459,10 +31599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:42:26</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44145.61280092593</v>
       </c>
       <c r="I440" t="n">
         <v>2</v>
@@ -32534,10 +31672,8 @@
           <t>3692546354</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:41:50</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44145.61238425926</v>
       </c>
       <c r="I441" t="n">
         <v>2</v>
@@ -32601,10 +31737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:41:39</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44145.61225694444</v>
       </c>
       <c r="I442" t="n">
         <v>13</v>
@@ -32680,10 +31814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:41:38</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44145.61224537037</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32755,10 +31887,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:41:30</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44145.61215277778</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32834,10 +31964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:41:16</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44145.61199074074</v>
       </c>
       <c r="I445" t="n">
         <v>313</v>
@@ -32913,10 +32041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:40:53</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44145.61172453704</v>
       </c>
       <c r="I446" t="n">
         <v>4</v>
@@ -32992,10 +32118,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:40:44</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44145.61162037037</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33064,10 +32188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:40:23</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44145.61137731482</v>
       </c>
       <c r="I448" t="n">
         <v>2</v>
@@ -33139,10 +32261,8 @@
           <t>3692545245</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:40:14</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44145.61127314815</v>
       </c>
       <c r="I449" t="n">
         <v>2</v>
@@ -33214,10 +32334,8 @@
           <t>3692538531</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:40:00</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44145.61111111111</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33289,10 +32407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:39:42</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44145.61090277778</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33360,10 +32476,8 @@
           <t>3692534765</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:39:35</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44145.61082175926</v>
       </c>
       <c r="I452" t="n">
         <v>5</v>
@@ -33439,10 +32553,8 @@
           <t>3692538224</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:39:33</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44145.61079861111</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33506,10 +32618,8 @@
           <t>3692534734</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:39:32</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44145.61078703704</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33573,10 +32683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:38:58</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44145.61039351852</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33648,10 +32756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:38:57</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44145.61038194445</v>
       </c>
       <c r="I456" t="n">
         <v>4</v>
@@ -33727,10 +32833,8 @@
           <t>3692534304</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:38:54</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44145.61034722222</v>
       </c>
       <c r="I457" t="n">
         <v>2</v>
@@ -33802,10 +32906,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:38:40</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44145.61018518519</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -33873,10 +32975,8 @@
           <t>3692537414</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:38:19</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44145.60994212963</v>
       </c>
       <c r="I459" t="n">
         <v>6</v>
@@ -33948,10 +33048,8 @@
           <t>3692502690</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:38:14</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44145.60988425926</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34015,10 +33113,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:38:02</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44145.60974537037</v>
       </c>
       <c r="I461" t="n">
         <v>2</v>
@@ -34094,10 +33190,8 @@
           <t>3692537181</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:37:59</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44145.60971064815</v>
       </c>
       <c r="I462" t="n">
         <v>3</v>
@@ -34157,10 +33251,8 @@
           <t>3692533597</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:37:56</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44145.60967592592</v>
       </c>
       <c r="I463" t="n">
         <v>21</v>
@@ -34236,10 +33328,8 @@
           <t>3692541075</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:37:42</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44145.60951388889</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34307,10 +33397,8 @@
           <t>3692533296</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:37:29</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44145.60936342592</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34370,10 +33458,8 @@
           <t>3692502690</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:37:19</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44145.60924768518</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34437,10 +33523,8 @@
           <t>3692540743</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:37:14</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44145.60918981482</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34508,10 +33592,8 @@
           <t>3692536672</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:37:12</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44145.60916666667</v>
       </c>
       <c r="I468" t="n">
         <v>8</v>
@@ -34583,10 +33665,8 @@
           <t>3692533087</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:37:09</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44145.60913194445</v>
       </c>
       <c r="I469" t="n">
         <v>6</v>
@@ -34654,10 +33734,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:36:53</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44145.60894675926</v>
       </c>
       <c r="I470" t="n">
         <v>4</v>
@@ -34725,10 +33803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:36:46</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44145.60886574074</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34796,10 +33872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:36:33</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44145.60871527778</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34871,10 +33945,8 @@
           <t>3692531452</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:36:23</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44145.60859953704</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34938,10 +34010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:36:02</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44145.60835648148</v>
       </c>
       <c r="I474" t="n">
         <v>11</v>
@@ -35005,10 +34075,8 @@
           <t>3692532252</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:35:56</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44145.60828703704</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35084,10 +34152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:35:19</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44145.6078587963</v>
       </c>
       <c r="I476" t="n">
         <v>3</v>
@@ -35163,10 +34229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:35:13</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44145.60778935185</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35230,10 +34294,8 @@
           <t>3692531775</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:35:13</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44145.60778935185</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35297,10 +34359,8 @@
           <t>3692531452</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:34:43</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44145.60744212963</v>
       </c>
       <c r="I479" t="n">
         <v>3</v>
@@ -35372,10 +34432,8 @@
           <t>3692531376</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:34:36</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44145.60736111111</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35451,10 +34509,8 @@
           <t>3692531043</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:34:08</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44145.60703703704</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35526,10 +34582,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:34:07</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44145.60702546296</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35597,10 +34651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:34:06</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44145.60701388889</v>
       </c>
       <c r="I483" t="n">
         <v>16</v>
@@ -35676,10 +34728,8 @@
           <t>3692528609</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:34:03</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44145.60697916667</v>
       </c>
       <c r="I484" t="n">
         <v>2</v>
@@ -35747,10 +34797,8 @@
           <t>3692517478</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:33:59</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44145.60693287037</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35826,10 +34874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:33:44</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44145.60675925926</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35905,10 +34951,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:33:39</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44145.60670138889</v>
       </c>
       <c r="I487" t="n">
         <v>6</v>
@@ -35976,10 +35020,8 @@
           <t>3692528327</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:33:38</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44145.60668981481</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36043,10 +35085,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:33:09</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44145.60635416667</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36114,10 +35154,8 @@
           <t>3692523769</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:32:56</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44145.6062037037</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36181,10 +35219,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:32:56</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44145.6062037037</v>
       </c>
       <c r="I491" t="n">
         <v>5</v>
@@ -36248,10 +35284,8 @@
           <t>3692527588</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:32:32</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44145.60592592593</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36319,10 +35353,8 @@
           <t>3692515179</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:32:23</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44145.60582175926</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36390,10 +35422,8 @@
           <t>3692527478</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:32:22</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44145.60581018519</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36470,10 +35500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:32:10</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44145.6056712963</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36541,10 +35569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:32:06</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44145.605625</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36612,10 +35638,8 @@
           <t>3692519463</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:31:54</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44145.60548611111</v>
       </c>
       <c r="I497" t="n">
         <v>2</v>
@@ -36683,10 +35707,8 @@
           <t>3692526907</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:31:31</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44145.6052199074</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36762,10 +35784,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:31:11</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44145.60498842593</v>
       </c>
       <c r="I499" t="n">
         <v>7</v>
@@ -36837,10 +35857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:31:06</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44145.60493055556</v>
       </c>
       <c r="I500" t="n">
         <v>8</v>
@@ -36904,10 +35922,8 @@
           <t>3692518196</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:31:00</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44145.60486111111</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36971,10 +35987,8 @@
           <t>3692526105</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:30:23</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44145.60443287037</v>
       </c>
       <c r="I502" t="n">
         <v>7</v>
@@ -37046,10 +36060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:30:21</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44145.60440972223</v>
       </c>
       <c r="I503" t="n">
         <v>6</v>
@@ -37113,10 +36125,8 @@
           <t>3692521871</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:30:14</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44145.6043287037</v>
       </c>
       <c r="I504" t="n">
         <v>3</v>
@@ -37184,10 +36194,8 @@
           <t>3692518196</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:30:05</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44145.60422453703</v>
       </c>
       <c r="I505" t="n">
         <v>6</v>
@@ -37251,10 +36259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:30:04</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44145.60421296296</v>
       </c>
       <c r="I506" t="n">
         <v>4</v>
@@ -37326,10 +36332,8 @@
           <t>3692521570</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:29:49</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44145.60403935185</v>
       </c>
       <c r="I507" t="n">
         <v>33</v>
@@ -37405,10 +36409,8 @@
           <t>3692521487</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:29:43</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44145.60396990741</v>
       </c>
       <c r="I508" t="n">
         <v>32</v>
@@ -37480,10 +36482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:29:31</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44145.60383101852</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37555,10 +36555,8 @@
           <t>3692517478</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:29:08</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44145.60356481482</v>
       </c>
       <c r="I510" t="n">
         <v>8</v>
@@ -37630,10 +36628,8 @@
           <t>3692525202</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:29:06</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44145.60354166666</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37703,10 +36699,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:29:04</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44145.60351851852</v>
       </c>
       <c r="I512" t="n">
         <v>95</v>
@@ -37782,10 +36776,8 @@
           <t>3692521019</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:29:02</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44145.60349537037</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -37849,10 +36841,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:28:46</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44145.60331018519</v>
       </c>
       <c r="I514" t="n">
         <v>9</v>
@@ -37928,10 +36918,8 @@
           <t>3692514922</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:28:42</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44145.60326388889</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38003,10 +36991,8 @@
           <t>3692464510</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:28:21</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44145.60302083333</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38082,10 +37068,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:28:11</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44145.60290509259</v>
       </c>
       <c r="I517" t="n">
         <v>2</v>
@@ -38161,10 +37145,8 @@
           <t>3692516535</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:27:48</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44145.60263888889</v>
       </c>
       <c r="I518" t="n">
         <v>11</v>
@@ -38240,10 +37222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:27:28</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44145.60240740741</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38311,10 +37291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:27:08</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44145.60217592592</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38382,10 +37360,8 @@
           <t>3692513641</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:26:48</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44145.60194444445</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38461,10 +37437,8 @@
           <t>3692501263</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:26:46</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44145.60192129629</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38540,10 +37514,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:26:37</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44145.60181712963</v>
       </c>
       <c r="I523" t="n">
         <v>2</v>
@@ -38615,10 +37587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:26:24</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44145.60166666667</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38686,10 +37656,8 @@
           <t>3692509115</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:26:19</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44145.6016087963</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38753,10 +37721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:26:15</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44145.6015625</v>
       </c>
       <c r="I526" t="n">
         <v>5</v>
@@ -38829,10 +37795,8 @@
           <t>3692502108</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:25:55</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44145.60133101852</v>
       </c>
       <c r="I527" t="n">
         <v>37</v>
@@ -38908,10 +37872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:25:53</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44145.60130787037</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38980,10 +37942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:25:47</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44145.60123842592</v>
       </c>
       <c r="I529" t="n">
         <v>74</v>
@@ -39055,10 +38015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:25:46</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44145.60122685185</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39134,10 +38092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:25:24</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44145.60097222222</v>
       </c>
       <c r="I531" t="n">
         <v>24</v>
@@ -39213,10 +38169,8 @@
           <t>3692504798</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:25:23</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44145.60096064815</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39288,10 +38242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:25:15</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44145.60086805555</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39363,10 +38315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:25:14</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44145.60085648148</v>
       </c>
       <c r="I534" t="n">
         <v>11</v>
@@ -39442,10 +38392,8 @@
           <t>3692504571</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:25:04</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44145.60074074074</v>
       </c>
       <c r="I535" t="n">
         <v>6</v>
@@ -39521,10 +38469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:24:08</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44145.60009259259</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39596,10 +38542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:23:21</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44145.59954861111</v>
       </c>
       <c r="I537" t="n">
         <v>2</v>
@@ -39671,10 +38615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:23:13</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44145.59945601852</v>
       </c>
       <c r="I538" t="n">
         <v>3</v>
@@ -39742,10 +38684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:23:12</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44145.59944444444</v>
       </c>
       <c r="I539" t="n">
         <v>292</v>
@@ -39817,10 +38757,8 @@
           <t>3692510879</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:22:50</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44145.59918981481</v>
       </c>
       <c r="I540" t="n">
         <v>57</v>
@@ -39896,10 +38834,8 @@
           <t>3692502690</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:22:24</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44145.59888888889</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39963,10 +38899,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:22:15</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44145.59878472222</v>
       </c>
       <c r="I542" t="n">
         <v>9</v>
@@ -40042,10 +38976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:22:09</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44145.59871527777</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40105,10 +39037,8 @@
           <t>3692506153</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:22:04</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44145.5986574074</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -40180,10 +39110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:21:41</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44145.5983912037</v>
       </c>
       <c r="I545" t="n">
         <v>5</v>
@@ -40254,10 +39182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:21:41</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44145.5983912037</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40325,10 +39251,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:21:41</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44145.5983912037</v>
       </c>
       <c r="I547" t="n">
         <v>17</v>
@@ -40400,10 +39324,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:21:31</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44145.59827546297</v>
       </c>
       <c r="I548" t="n">
         <v>2</v>
@@ -40479,10 +39401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:21:13</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44145.59806712963</v>
       </c>
       <c r="I549" t="n">
         <v>55</v>
@@ -40558,10 +39478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:21:05</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44145.59797453704</v>
       </c>
       <c r="I550" t="n">
         <v>1</v>
@@ -40625,10 +39543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:21:04</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44145.59796296297</v>
       </c>
       <c r="I551" t="n">
         <v>1</v>
@@ -40704,10 +39620,8 @@
           <t>3692499382</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:20:40</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44145.59768518519</v>
       </c>
       <c r="I552" t="n">
         <v>16</v>
@@ -40771,10 +39685,8 @@
           <t>3692501263</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:20:25</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44145.59751157407</v>
       </c>
       <c r="I553" t="n">
         <v>14</v>
@@ -40838,10 +39750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:20:24</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44145.5975</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40913,10 +39823,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:20:00</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44145.59722222222</v>
       </c>
       <c r="I555" t="n">
         <v>17</v>
@@ -40988,10 +39896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:19:46</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44145.59706018519</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41055,10 +39961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:19:37</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44145.59695601852</v>
       </c>
       <c r="I557" t="n">
         <v>2</v>
@@ -41126,10 +40030,8 @@
           <t>3692494320</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:19:32</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44145.59689814815</v>
       </c>
       <c r="I558" t="n">
         <v>11</v>
@@ -41193,10 +40095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:19:30</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44145.596875</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41265,10 +40165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:19:23</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44145.59679398148</v>
       </c>
       <c r="I560" t="n">
         <v>63</v>
@@ -41344,10 +40242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:19:23</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44145.59679398148</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41419,10 +40315,8 @@
           <t>3692494130</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:19:15</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44145.59670138889</v>
       </c>
       <c r="I562" t="n">
         <v>24</v>
@@ -41498,10 +40392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:19:02</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44145.59655092593</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41577,10 +40469,8 @@
           <t>3692500274</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:19:00</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44145.59652777778</v>
       </c>
       <c r="I564" t="n">
         <v>10</v>
@@ -41652,10 +40542,8 @@
           <t>3692497767</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:18:28</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44145.59615740741</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41719,10 +40607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:18:09</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44145.5959375</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41790,10 +40676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:18:04</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44145.59587962963</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41861,10 +40745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:18:00</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44145.59583333333</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41928,10 +40810,8 @@
           <t>3692492730</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:17:10</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44145.59525462963</v>
       </c>
       <c r="I569" t="n">
         <v>10</v>
@@ -41995,10 +40875,8 @@
           <t>3692488994</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:17:05</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44145.59519675926</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42070,10 +40948,8 @@
           <t>3692492637</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:17:02</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44145.59516203704</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42145,10 +41021,8 @@
           <t>3692496585</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:16:52</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44145.59504629629</v>
       </c>
       <c r="I572" t="n">
         <v>187</v>
@@ -42220,10 +41094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:16:29</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44145.59478009259</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42295,10 +41167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:16:04</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44145.59449074074</v>
       </c>
       <c r="I574" t="n">
         <v>8</v>
@@ -42366,10 +41236,8 @@
           <t>3692491652</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:15:34</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44145.59414351852</v>
       </c>
       <c r="I575" t="n">
         <v>5</v>
@@ -42433,10 +41301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:15:18</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44145.59395833333</v>
       </c>
       <c r="I576" t="n">
         <v>3</v>
@@ -42504,10 +41370,8 @@
           <t>3692495337</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:15:12</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44145.59388888889</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42575,10 +41439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:14:59</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44145.59373842592</v>
       </c>
       <c r="I578" t="n">
         <v>50</v>
@@ -42642,10 +41504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:14:52</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44145.59365740741</v>
       </c>
       <c r="I579" t="n">
         <v>1422</v>
@@ -42722,10 +41582,8 @@
           <t>3692484966</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:14:38</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44145.59349537037</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42801,10 +41659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:14:11</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44145.59318287037</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42872,10 +41728,8 @@
           <t>3692486848</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:14:10</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44145.5931712963</v>
       </c>
       <c r="I582" t="n">
         <v>2</v>
@@ -42939,10 +41793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:13:52</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44145.59296296296</v>
       </c>
       <c r="I583" t="n">
         <v>725</v>
@@ -43018,10 +41870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:13:47</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44145.59290509259</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43089,10 +41939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:13:31</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44145.59271990741</v>
       </c>
       <c r="I585" t="n">
         <v>1</v>
@@ -43164,10 +42012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:12:48</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44145.59222222222</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43231,10 +42077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:12:46</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44145.59219907408</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43310,10 +42154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:12:44</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44145.59217592593</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43389,10 +42231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:12:34</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44145.59206018518</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -43452,10 +42292,8 @@
           <t>3692483458</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:12:30</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44145.59201388889</v>
       </c>
       <c r="I590" t="n">
         <v>5</v>
@@ -43531,10 +42369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:12:01</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44145.59167824074</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43606,10 +42442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:11:55</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44145.5916087963</v>
       </c>
       <c r="I592" t="n">
         <v>4</v>
@@ -43685,10 +42519,8 @@
           <t>3692459418</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:11:54</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44145.59159722222</v>
       </c>
       <c r="I593" t="n">
         <v>5</v>
@@ -43752,10 +42584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:11:14</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44145.59113425926</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43831,10 +42661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:10:09</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44145.59038194444</v>
       </c>
       <c r="I595" t="n">
         <v>24</v>
@@ -43910,10 +42738,8 @@
           <t>3692481849</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:10:06</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44145.59034722222</v>
       </c>
       <c r="I596" t="n">
         <v>3</v>
@@ -43985,10 +42811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:10:00</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44145.59027777778</v>
       </c>
       <c r="I597" t="n">
         <v>153</v>
@@ -44056,10 +42880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:09:25</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44145.58987268519</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44127,10 +42949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:08:59</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44145.58957175926</v>
       </c>
       <c r="I599" t="n">
         <v>1</v>
@@ -44206,10 +43026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:08:42</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44145.589375</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44285,10 +43103,8 @@
           <t>3692476506</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:08:19</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44145.5891087963</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44360,10 +43176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:08:03</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44145.58892361111</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44435,10 +43249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:07:20</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44145.58842592593</v>
       </c>
       <c r="I603" t="n">
         <v>89</v>
@@ -44502,10 +43314,8 @@
           <t>3692471104</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:06:22</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44145.58775462963</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44575,10 +43385,8 @@
           <t>3692470654</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:05:45</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44145.58732638889</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44642,10 +43450,8 @@
           <t>3692464510</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:05:34</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44145.58719907407</v>
       </c>
       <c r="I606" t="n">
         <v>6</v>
@@ -44713,10 +43519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:05:22</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44145.58706018519</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44780,10 +43584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:04:58</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44145.58678240741</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44855,10 +43657,8 @@
           <t>3692464099</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:04:57</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44145.58677083333</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44922,10 +43722,8 @@
           <t>3692467794</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:04:23</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44145.58637731482</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44997,10 +43795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:04:16</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44145.58629629629</v>
       </c>
       <c r="I611" t="n">
         <v>1</v>
@@ -45068,10 +43864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:04:08</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44145.5862037037</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45147,10 +43941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:03:59</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44145.58609953704</v>
       </c>
       <c r="I613" t="n">
         <v>20</v>
@@ -45218,10 +44010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:03:54</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44145.58604166667</v>
       </c>
       <c r="I614" t="n">
         <v>17</v>
@@ -45293,10 +44083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:03:15</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44145.58559027778</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45368,10 +44156,8 @@
           <t>3692466852</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:03:05</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44145.58547453704</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45447,10 +44233,8 @@
           <t>3692465828</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:03:02</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44145.58543981481</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45518,10 +44302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:02:43</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44145.58521990741</v>
       </c>
       <c r="I618" t="n">
         <v>3</v>
@@ -45589,10 +44371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:02:28</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44145.5850462963</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -45668,10 +44448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:02:27</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44145.58503472222</v>
       </c>
       <c r="I620" t="n">
         <v>65</v>
@@ -45750,10 +44528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:02:23</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44145.58498842592</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45817,10 +44593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:02:16</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44145.58490740741</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45888,10 +44662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:02:15</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44145.58489583333</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45959,10 +44731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:02:02</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44145.58474537037</v>
       </c>
       <c r="I624" t="n">
         <v>185</v>
@@ -46030,10 +44800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:58</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44145.58469907408</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46105,10 +44873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:57</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44145.5846875</v>
       </c>
       <c r="I626" t="n">
         <v>1</v>
@@ -46172,10 +44938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:51</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44145.58461805555</v>
       </c>
       <c r="I627" t="n">
         <v>1</v>
@@ -46251,10 +45015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:50</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44145.58460648148</v>
       </c>
       <c r="I628" t="n">
         <v>1</v>
@@ -46318,10 +45080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:43</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44145.58452546296</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46397,10 +45157,8 @@
           <t>3692465828</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:43</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44145.58452546296</v>
       </c>
       <c r="I630" t="n">
         <v>1</v>
@@ -46476,10 +45234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:24</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44145.58430555555</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46551,10 +45307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:16</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44145.58421296296</v>
       </c>
       <c r="I632" t="n">
         <v>44</v>
@@ -46618,10 +45372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:08</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44145.58412037037</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46697,10 +45449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:06</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44145.58409722222</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46768,10 +45518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:01:04</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44145.58407407408</v>
       </c>
       <c r="I635" t="n">
         <v>325</v>
@@ -46847,10 +45595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:56</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44145.58398148148</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46910,10 +45656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:54</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44145.58395833334</v>
       </c>
       <c r="I637" t="n">
         <v>6</v>
@@ -46982,10 +45726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:49</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44145.58390046296</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -47057,10 +45799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:43</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44145.58383101852</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47128,10 +45868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:41</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44145.58380787037</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47195,10 +45933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:39</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44145.58378472222</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -47267,10 +46003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:38</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44145.58377314815</v>
       </c>
       <c r="I642" t="n">
         <v>3</v>
@@ -47342,10 +46076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:24</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44145.58361111111</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47417,10 +46149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:22</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44145.58358796296</v>
       </c>
       <c r="I644" t="n">
         <v>1</v>
@@ -47488,10 +46218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-11-10 14:00:21</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44145.58357638889</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
